--- a/tests/output/publications_metadata/PGP1/PGP1_metadata.xlsx
+++ b/tests/output/publications_metadata/PGP1/PGP1_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
   <si>
     <t>PGS Publication/Study (PGP) ID</t>
   </si>
@@ -361,6 +361,9 @@
     <t>Cohort Name</t>
   </si>
   <si>
+    <t>Previous/other/additional names</t>
+  </si>
+  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -383,6 +386,9 @@
   </si>
   <si>
     <t>Cohort KLMN</t>
+  </si>
+  <si>
+    <t>ABC-1</t>
   </si>
 </sst>
 </file>
@@ -1452,50 +1458,56 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/publications_metadata/PGP1/PGP1_metadata.xlsx
+++ b/tests/output/publications_metadata/PGP1/PGP1_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
   <si>
     <t>PGS Publication/Study (PGP) ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Publication Date</t>
   </si>
   <si>
+    <t>Release Date</t>
+  </si>
+  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
   </si>
   <si>
     <t>First T, Other A, Other B</t>
@@ -759,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,30 +796,36 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
         <v>10000001</v>
       </c>
     </row>
@@ -832,44 +844,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -883,98 +895,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -983,60 +998,63 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <v>10000001</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -1045,31 +1063,34 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M3">
         <v>10000001</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>14</v>
+      </c>
+      <c r="U3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1091,81 +1112,81 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>1234</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O2">
         <v>10000011</v>
@@ -1173,25 +1194,25 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1234</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O3">
         <v>10000011</v>
@@ -1212,104 +1233,104 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H2">
         <v>10000001</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H3">
         <v>10000001</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1327,66 +1348,66 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>61055</v>
@@ -1398,30 +1419,30 @@
         <v>30382</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="R2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>51925</v>
@@ -1433,22 +1454,22 @@
         <v>31560</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1466,48 +1487,48 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/publications_metadata/PGP1/PGP1_metadata.xlsx
+++ b/tests/output/publications_metadata/PGP1/PGP1_metadata.xlsx
@@ -310,7 +310,7 @@
     <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
   </si>
   <si>
-    <t>Corcordance Statistic (C-index)</t>
+    <t>Concordance Statistic (C-index)</t>
   </si>
   <si>
     <t>Other Metric(s)</t>
